--- a/sd-test-add-igNOS/ig/StructureDefinition-as-ext-lieu-dit.xlsx
+++ b/sd-test-add-igNOS/ig/StructureDefinition-as-ext-lieu-dit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T13:32:08+00:00</t>
+    <t>2024-03-04T13:34:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
